--- a/DSA_prep.xlsx
+++ b/DSA_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\DeepLearning\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2D6871C-DAB5-4F04-907C-B0CC70DD67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B5E92301-A551-4E2F-AAB0-A17504A3431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9E88DE9-9271-44A8-9187-BF7E3669318B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4344" uniqueCount="1203">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4344" uniqueCount="1204">
   <si>
     <t>Problem Number</t>
   </si>
@@ -3634,6 +3634,9 @@
   </si>
   <si>
     <t>Minutes-I can we used</t>
+  </si>
+  <si>
+    <t>Stri+D81:H81ng</t>
   </si>
 </sst>
 </file>
@@ -4117,10 +4120,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4166,7 +4170,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4476,13 +4488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659D85E-F311-4E80-8E34-CAA97BC43A66}">
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:J543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="I236" sqref="I236"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="175.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4828,8 +4848,8 @@
       <c r="H12" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4944,8 +4964,8 @@
       <c r="H16" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>20</v>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5095,7 +5115,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -5524,8 +5544,8 @@
       <c r="H36" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>20</v>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6340,7 +6360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17</v>
       </c>
@@ -6369,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23</v>
       </c>
@@ -6398,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>31</v>
       </c>
@@ -6427,7 +6447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>34</v>
       </c>
@@ -6456,7 +6476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>50</v>
       </c>
@@ -6481,11 +6501,12 @@
       <c r="H69" t="s">
         <v>201</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>84</v>
       </c>
@@ -6514,7 +6535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>162</v>
       </c>
@@ -6543,7 +6564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>560</v>
       </c>
@@ -6572,7 +6593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>567</v>
       </c>
@@ -6601,7 +6622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>584</v>
       </c>
@@ -6630,7 +6651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2458</v>
       </c>
@@ -6659,7 +6680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2985</v>
       </c>
@@ -6688,7 +6709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2987</v>
       </c>
@@ -6717,7 +6738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2989</v>
       </c>
@@ -6746,7 +6767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2990</v>
       </c>
@@ -6775,7 +6796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2991</v>
       </c>
@@ -6804,7 +6825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3008</v>
       </c>
@@ -6815,7 +6836,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>1203</v>
       </c>
       <c r="E81" t="s">
         <v>106</v>
@@ -6829,11 +6850,12 @@
       <c r="H81" t="s">
         <v>230</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3028</v>
       </c>
@@ -6862,7 +6884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3024</v>
       </c>
@@ -6891,7 +6913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>22</v>
       </c>
@@ -6920,7 +6942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>198</v>
       </c>
@@ -6949,7 +6971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>215</v>
       </c>
@@ -6978,7 +7000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>231</v>
       </c>
@@ -7007,7 +7029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>424</v>
       </c>
@@ -7036,7 +7058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>670</v>
       </c>
@@ -7065,7 +7087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>962</v>
       </c>
@@ -7094,7 +7116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2337</v>
       </c>
@@ -7123,7 +7145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2877</v>
       </c>
@@ -7152,7 +7174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -7181,7 +7203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -7210,7 +7232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
@@ -7239,7 +7261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>33</v>
       </c>
@@ -10019,8 +10041,8 @@
       <c r="H191" t="s">
         <v>470</v>
       </c>
-      <c r="I191" s="2" t="s">
-        <v>20</v>
+      <c r="I191" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -20229,6 +20251,12 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>